--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -130,7 +130,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>43399.68751908565</v>
+        <v>43402.427138784726</v>
       </c>
       <c r="D2" t="n">
         <v>1200000.0</v>
@@ -144,7 +144,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>24061.687519085648</v>
+        <v>24061.427138784722</v>
       </c>
       <c r="D3" t="n">
         <v>1500000.0</v>
@@ -158,7 +158,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>31915.687519085648</v>
+        <v>31915.427138784722</v>
       </c>
       <c r="D4" t="n">
         <v>1800000.0</v>
